--- a/3D3 Project/3dprojekt_data.xlsx
+++ b/3D3 Project/3dprojekt_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\3D-Prog3-Project\3D3 Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438AFED5-858F-49BA-A629-3E94E4D04DC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5B69CD-D727-4B3F-A94D-DC818F56026F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA2357CD-BDC8-460F-B64C-585A6BE40347}"/>
+    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{AA2357CD-BDC8-460F-B64C-585A6BE40347}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,36 +31,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>BLEND</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>(ms)</t>
   </si>
   <si>
-    <t>1000 tester</t>
+    <t>COPY</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>Direkt Kö Endast</t>
+  </si>
+  <si>
+    <t>Alla Köer</t>
+  </si>
+  <si>
+    <t>10000 tester</t>
   </si>
 </sst>
 </file>
@@ -76,12 +73,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,8 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,84 +416,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858E0EF8-9526-4B68-A0DE-5B3D630C7D4F}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1.7470000000000001E-3</v>
+      </c>
+      <c r="C3">
+        <v>3.8570000000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1.5100000000000001E-4</v>
+      </c>
+      <c r="C4">
+        <v>4.7029999999999997E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9.8126000000000005E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.111821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B6">
+        <v>1.6185000000000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>1.8537999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.130019</v>
-      </c>
-      <c r="E3">
-        <v>0.14139299999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1.8845000000000001E-2</v>
-      </c>
-      <c r="E4">
-        <v>2.6071E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <f>SUM(B$3:B$4)</f>
-        <v>0.148864</v>
-      </c>
-      <c r="E5">
-        <f>SUM(E3:E4)</f>
-        <v>0.167464</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="C5:N5" si="0">SUM(H$3:H$4)</f>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B8">
+        <v>0.11620900000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.13891899999999999</v>
       </c>
     </row>
   </sheetData>
